--- a/Docs/Diseño de pruebas.xlsx
+++ b/Docs/Diseño de pruebas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Documents\workspace-spring-tool-suite-4-4.13.1.RELEASE\taller1\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F677FCD-A725-45C2-9AA7-5CEE2FE9AFE4}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D0041ED-1358-4D24-979D-7025812EF576}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2331BF65-BEAF-4036-9D67-DC2EA45E5B24}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="792" uniqueCount="86">
   <si>
     <t>Scenarios setup</t>
   </si>
@@ -285,13 +285,16 @@
   </si>
   <si>
     <t>un nuevo ProductService con el id de un ProductService ya creado y con fecha inicial menor a final, con tamaño y peso igual a 1, con código igual a "1234", asociaso a una subcategoría que se ha guardado en el programa y asociaso a una subcategoría que se ha guardado en el programa</t>
+  </si>
+  <si>
+    <t>Falta hacer que revise que el que se vaya a editar si exista</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -299,8 +302,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -310,6 +319,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -429,12 +444,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -450,6 +464,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -457,28 +474,13 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -491,6 +493,22 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -901,251 +919,251 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{857F4F31-F9D1-44DC-87CE-81186264201B}">
   <dimension ref="A1:J126"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L19" sqref="L19"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L24" sqref="L24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="13"/>
-      <c r="C3" s="13" t="s">
+      <c r="B3" s="20"/>
+      <c r="C3" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13" t="s">
+      <c r="D3" s="20"/>
+      <c r="E3" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
-      <c r="H3" s="13"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="20"/>
+      <c r="H3" s="20"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="15" t="s">
+      <c r="A4" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="15"/>
-      <c r="C4" s="15" t="s">
+      <c r="B4" s="18"/>
+      <c r="C4" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15" t="s">
+      <c r="D4" s="18"/>
+      <c r="E4" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="15"/>
-      <c r="G4" s="15"/>
-      <c r="H4" s="15"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="18"/>
+      <c r="H4" s="18"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="15"/>
-      <c r="B5" s="15"/>
-      <c r="C5" s="15"/>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="15"/>
-      <c r="H5" s="15"/>
+      <c r="A5" s="18"/>
+      <c r="B5" s="18"/>
+      <c r="C5" s="18"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="18"/>
+      <c r="H5" s="18"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="15" t="s">
+      <c r="A6" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="15"/>
-      <c r="C6" s="15" t="s">
+      <c r="B6" s="18"/>
+      <c r="C6" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="15"/>
-      <c r="E6" s="15" t="s">
+      <c r="D6" s="18"/>
+      <c r="E6" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="F6" s="15"/>
-      <c r="G6" s="15"/>
-      <c r="H6" s="15"/>
+      <c r="F6" s="18"/>
+      <c r="G6" s="18"/>
+      <c r="H6" s="18"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="15"/>
-      <c r="B7" s="15"/>
-      <c r="C7" s="15"/>
-      <c r="D7" s="15"/>
-      <c r="E7" s="15"/>
-      <c r="F7" s="15"/>
-      <c r="G7" s="15"/>
-      <c r="H7" s="15"/>
+      <c r="A7" s="18"/>
+      <c r="B7" s="18"/>
+      <c r="C7" s="18"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="18"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="18"/>
+      <c r="H7" s="18"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="15" t="s">
+      <c r="A8" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="15"/>
-      <c r="C8" s="15" t="s">
+      <c r="B8" s="18"/>
+      <c r="C8" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="15"/>
-      <c r="E8" s="15" t="s">
+      <c r="D8" s="18"/>
+      <c r="E8" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="F8" s="15"/>
-      <c r="G8" s="15"/>
-      <c r="H8" s="15"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="18"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="15"/>
-      <c r="B9" s="15"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="15"/>
-      <c r="H9" s="15"/>
+      <c r="A9" s="18"/>
+      <c r="B9" s="18"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="18"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="15" t="s">
+      <c r="A10" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="B10" s="15"/>
-      <c r="C10" s="15" t="s">
+      <c r="B10" s="18"/>
+      <c r="C10" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="15"/>
-      <c r="E10" s="15" t="s">
+      <c r="D10" s="18"/>
+      <c r="E10" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="F10" s="15"/>
-      <c r="G10" s="15"/>
-      <c r="H10" s="15"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="18"/>
+      <c r="H10" s="18"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="15"/>
-      <c r="B11" s="15"/>
-      <c r="C11" s="15"/>
-      <c r="D11" s="15"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="15"/>
-      <c r="G11" s="15"/>
-      <c r="H11" s="15"/>
+      <c r="A11" s="18"/>
+      <c r="B11" s="18"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="18"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="16" t="s">
+      <c r="A14" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="16"/>
-      <c r="C14" s="16"/>
-      <c r="D14" s="16"/>
-      <c r="E14" s="16"/>
-      <c r="F14" s="16"/>
-      <c r="G14" s="16"/>
-      <c r="H14" s="16"/>
+      <c r="B14" s="19"/>
+      <c r="C14" s="19"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="19"/>
+      <c r="F14" s="19"/>
+      <c r="G14" s="19"/>
+      <c r="H14" s="19"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="13" t="s">
+      <c r="A16" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="13"/>
-      <c r="C16" s="13" t="s">
+      <c r="B16" s="20"/>
+      <c r="C16" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="D16" s="13"/>
-      <c r="E16" s="3" t="s">
+      <c r="D16" s="20"/>
+      <c r="E16" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F16" s="13" t="s">
+      <c r="F16" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="G16" s="13"/>
-      <c r="H16" s="13" t="s">
+      <c r="G16" s="20"/>
+      <c r="H16" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="I16" s="13"/>
-      <c r="J16" s="13"/>
+      <c r="I16" s="20"/>
+      <c r="J16" s="20"/>
     </row>
     <row r="17" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="10" t="s">
+      <c r="A17" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B17" s="10"/>
-      <c r="C17" s="10" t="s">
+      <c r="B17" s="7"/>
+      <c r="C17" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D17" s="10"/>
-      <c r="E17" s="10" t="s">
+      <c r="D17" s="7"/>
+      <c r="E17" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="F17" s="10" t="s">
+      <c r="F17" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="G17" s="10"/>
-      <c r="H17" s="10" t="s">
+      <c r="G17" s="7"/>
+      <c r="H17" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="I17" s="10"/>
-      <c r="J17" s="10"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="7"/>
     </row>
     <row r="18" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="10"/>
-      <c r="B18" s="10"/>
-      <c r="C18" s="10"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="10"/>
-      <c r="G18" s="10"/>
-      <c r="H18" s="10"/>
-      <c r="I18" s="10"/>
-      <c r="J18" s="10"/>
+      <c r="A18" s="7"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="7"/>
+      <c r="J18" s="7"/>
     </row>
     <row r="19" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="10" t="s">
+      <c r="A19" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B19" s="10"/>
-      <c r="C19" s="10" t="s">
+      <c r="B19" s="7"/>
+      <c r="C19" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D19" s="10"/>
-      <c r="E19" s="10" t="s">
+      <c r="D19" s="7"/>
+      <c r="E19" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="F19" s="10" t="s">
+      <c r="F19" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="G19" s="10"/>
-      <c r="H19" s="10" t="s">
+      <c r="G19" s="7"/>
+      <c r="H19" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="I19" s="10"/>
-      <c r="J19" s="10"/>
+      <c r="I19" s="7"/>
+      <c r="J19" s="7"/>
     </row>
     <row r="20" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="10"/>
-      <c r="B20" s="10"/>
-      <c r="C20" s="10"/>
-      <c r="D20" s="10"/>
-      <c r="E20" s="10"/>
-      <c r="F20" s="10"/>
-      <c r="G20" s="10"/>
-      <c r="H20" s="10"/>
-      <c r="I20" s="10"/>
-      <c r="J20" s="10"/>
+      <c r="A20" s="7"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="7"/>
+      <c r="J20" s="7"/>
     </row>
     <row r="21" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="10" t="s">
+      <c r="A21" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B21" s="10"/>
+      <c r="B21" s="7"/>
       <c r="C21" s="17" t="s">
         <v>20</v>
       </c>
@@ -1153,134 +1171,136 @@
       <c r="E21" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="F21" s="10" t="s">
+      <c r="F21" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="G21" s="10"/>
-      <c r="H21" s="10" t="s">
+      <c r="G21" s="7"/>
+      <c r="H21" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="I21" s="10"/>
-      <c r="J21" s="10"/>
+      <c r="I21" s="7"/>
+      <c r="J21" s="7"/>
     </row>
     <row r="22" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="10"/>
-      <c r="B22" s="10"/>
+      <c r="A22" s="7"/>
+      <c r="B22" s="7"/>
       <c r="C22" s="17"/>
       <c r="D22" s="17"/>
       <c r="E22" s="17"/>
-      <c r="F22" s="10"/>
-      <c r="G22" s="10"/>
-      <c r="H22" s="10"/>
-      <c r="I22" s="10"/>
-      <c r="J22" s="10"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="7"/>
+      <c r="J22" s="7"/>
     </row>
     <row r="23" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="4" t="s">
+      <c r="A23" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B23" s="5"/>
-      <c r="C23" s="18" t="s">
+      <c r="B23" s="4"/>
+      <c r="C23" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="D23" s="19"/>
-      <c r="E23" s="10" t="s">
+      <c r="D23" s="14"/>
+      <c r="E23" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="F23" s="10" t="s">
+      <c r="F23" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="G23" s="10"/>
-      <c r="H23" s="10" t="s">
+      <c r="G23" s="7"/>
+      <c r="H23" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="I23" s="10"/>
-      <c r="J23" s="10"/>
+      <c r="I23" s="7"/>
+      <c r="J23" s="7"/>
     </row>
     <row r="24" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="6"/>
-      <c r="B24" s="7"/>
-      <c r="C24" s="20"/>
-      <c r="D24" s="21"/>
-      <c r="E24" s="10"/>
-      <c r="F24" s="10"/>
-      <c r="G24" s="10"/>
-      <c r="H24" s="10"/>
-      <c r="I24" s="10"/>
-      <c r="J24" s="10"/>
+      <c r="A24" s="5"/>
+      <c r="B24" s="6"/>
+      <c r="C24" s="15"/>
+      <c r="D24" s="16"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="7"/>
+      <c r="I24" s="7"/>
+      <c r="J24" s="7"/>
     </row>
     <row r="25" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="4" t="s">
+      <c r="A25" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B25" s="5"/>
-      <c r="C25" s="18" t="s">
+      <c r="B25" s="4"/>
+      <c r="C25" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="D25" s="19"/>
-      <c r="E25" s="10" t="s">
+      <c r="D25" s="14"/>
+      <c r="E25" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="F25" s="4" t="s">
+      <c r="F25" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="G25" s="5"/>
-      <c r="H25" s="4" t="s">
+      <c r="G25" s="4"/>
+      <c r="H25" s="3" t="s">
         <v>21</v>
       </c>
       <c r="I25" s="11"/>
-      <c r="J25" s="5"/>
+      <c r="J25" s="4"/>
     </row>
     <row r="26" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="6"/>
-      <c r="B26" s="7"/>
-      <c r="C26" s="20"/>
-      <c r="D26" s="21"/>
-      <c r="E26" s="10"/>
-      <c r="F26" s="6"/>
-      <c r="G26" s="7"/>
-      <c r="H26" s="6"/>
+      <c r="A26" s="5"/>
+      <c r="B26" s="6"/>
+      <c r="C26" s="15"/>
+      <c r="D26" s="16"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="6"/>
+      <c r="H26" s="5"/>
       <c r="I26" s="12"/>
-      <c r="J26" s="7"/>
+      <c r="J26" s="6"/>
     </row>
     <row r="27" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="4" t="s">
+      <c r="A27" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B27" s="5"/>
-      <c r="C27" s="18" t="s">
+      <c r="B27" s="4"/>
+      <c r="C27" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="D27" s="19"/>
+      <c r="D27" s="14"/>
       <c r="E27" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="F27" s="4" t="s">
+      <c r="F27" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="G27" s="5"/>
-      <c r="H27" s="10" t="s">
+      <c r="G27" s="4"/>
+      <c r="H27" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="I27" s="10"/>
-      <c r="J27" s="10"/>
+      <c r="I27" s="7"/>
+      <c r="J27" s="7"/>
     </row>
     <row r="28" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="6"/>
-      <c r="B28" s="7"/>
-      <c r="C28" s="20"/>
-      <c r="D28" s="21"/>
+      <c r="A28" s="5"/>
+      <c r="B28" s="6"/>
+      <c r="C28" s="15"/>
+      <c r="D28" s="16"/>
       <c r="E28" s="17"/>
-      <c r="F28" s="6"/>
-      <c r="G28" s="7"/>
-      <c r="H28" s="10"/>
-      <c r="I28" s="10"/>
-      <c r="J28" s="10"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="6"/>
+      <c r="H28" s="7"/>
+      <c r="I28" s="7"/>
+      <c r="J28" s="7"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29" s="2"/>
-      <c r="B29" s="2"/>
-      <c r="C29" s="1"/>
+      <c r="A29" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="B29" s="21"/>
+      <c r="C29" s="22"/>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
@@ -1290,1574 +1310,1512 @@
       <c r="J29" s="1"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A33" s="13" t="s">
+      <c r="A33" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="B33" s="13"/>
-      <c r="C33" s="13" t="s">
+      <c r="B33" s="20"/>
+      <c r="C33" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="D33" s="13"/>
-      <c r="E33" s="3" t="s">
+      <c r="D33" s="20"/>
+      <c r="E33" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F33" s="13" t="s">
+      <c r="F33" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="G33" s="13"/>
-      <c r="H33" s="13" t="s">
+      <c r="G33" s="20"/>
+      <c r="H33" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="I33" s="13"/>
-      <c r="J33" s="13"/>
+      <c r="I33" s="20"/>
+      <c r="J33" s="20"/>
     </row>
     <row r="34" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="10" t="s">
+      <c r="A34" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B34" s="10"/>
-      <c r="C34" s="10" t="s">
+      <c r="B34" s="7"/>
+      <c r="C34" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D34" s="10"/>
-      <c r="E34" s="10" t="s">
+      <c r="D34" s="7"/>
+      <c r="E34" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="F34" s="10" t="s">
+      <c r="F34" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="G34" s="10"/>
-      <c r="H34" s="10" t="s">
+      <c r="G34" s="7"/>
+      <c r="H34" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="I34" s="10"/>
-      <c r="J34" s="10"/>
+      <c r="I34" s="7"/>
+      <c r="J34" s="7"/>
     </row>
     <row r="35" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="10"/>
-      <c r="B35" s="10"/>
-      <c r="C35" s="10"/>
-      <c r="D35" s="10"/>
-      <c r="E35" s="10"/>
-      <c r="F35" s="10"/>
-      <c r="G35" s="10"/>
-      <c r="H35" s="10"/>
-      <c r="I35" s="10"/>
-      <c r="J35" s="10"/>
+      <c r="A35" s="7"/>
+      <c r="B35" s="7"/>
+      <c r="C35" s="7"/>
+      <c r="D35" s="7"/>
+      <c r="E35" s="7"/>
+      <c r="F35" s="7"/>
+      <c r="G35" s="7"/>
+      <c r="H35" s="7"/>
+      <c r="I35" s="7"/>
+      <c r="J35" s="7"/>
     </row>
     <row r="36" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="10" t="s">
+      <c r="A36" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B36" s="10"/>
-      <c r="C36" s="10" t="s">
+      <c r="B36" s="7"/>
+      <c r="C36" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D36" s="10"/>
-      <c r="E36" s="10" t="s">
+      <c r="D36" s="7"/>
+      <c r="E36" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="F36" s="10" t="s">
+      <c r="F36" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="G36" s="10"/>
-      <c r="H36" s="10" t="s">
+      <c r="G36" s="7"/>
+      <c r="H36" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="I36" s="10"/>
-      <c r="J36" s="10"/>
+      <c r="I36" s="7"/>
+      <c r="J36" s="7"/>
     </row>
     <row r="37" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="10"/>
-      <c r="B37" s="10"/>
-      <c r="C37" s="10"/>
-      <c r="D37" s="10"/>
-      <c r="E37" s="10"/>
-      <c r="F37" s="10"/>
-      <c r="G37" s="10"/>
-      <c r="H37" s="10"/>
-      <c r="I37" s="10"/>
-      <c r="J37" s="10"/>
+      <c r="A37" s="7"/>
+      <c r="B37" s="7"/>
+      <c r="C37" s="7"/>
+      <c r="D37" s="7"/>
+      <c r="E37" s="7"/>
+      <c r="F37" s="7"/>
+      <c r="G37" s="7"/>
+      <c r="H37" s="7"/>
+      <c r="I37" s="7"/>
+      <c r="J37" s="7"/>
     </row>
     <row r="38" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="10" t="s">
+      <c r="A38" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B38" s="10"/>
-      <c r="C38" s="10" t="s">
+      <c r="B38" s="7"/>
+      <c r="C38" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D38" s="10"/>
-      <c r="E38" s="10" t="s">
+      <c r="D38" s="7"/>
+      <c r="E38" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="F38" s="10" t="s">
+      <c r="F38" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="G38" s="10"/>
-      <c r="H38" s="10" t="s">
+      <c r="G38" s="7"/>
+      <c r="H38" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="I38" s="10"/>
-      <c r="J38" s="10"/>
+      <c r="I38" s="7"/>
+      <c r="J38" s="7"/>
     </row>
     <row r="39" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="10"/>
-      <c r="B39" s="10"/>
-      <c r="C39" s="10"/>
-      <c r="D39" s="10"/>
-      <c r="E39" s="10"/>
-      <c r="F39" s="10"/>
-      <c r="G39" s="10"/>
-      <c r="H39" s="10"/>
-      <c r="I39" s="10"/>
-      <c r="J39" s="10"/>
+      <c r="A39" s="7"/>
+      <c r="B39" s="7"/>
+      <c r="C39" s="7"/>
+      <c r="D39" s="7"/>
+      <c r="E39" s="7"/>
+      <c r="F39" s="7"/>
+      <c r="G39" s="7"/>
+      <c r="H39" s="7"/>
+      <c r="I39" s="7"/>
+      <c r="J39" s="7"/>
     </row>
     <row r="40" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="10" t="s">
+      <c r="A40" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B40" s="10"/>
-      <c r="C40" s="10" t="s">
+      <c r="B40" s="7"/>
+      <c r="C40" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D40" s="10"/>
-      <c r="E40" s="10" t="s">
+      <c r="D40" s="7"/>
+      <c r="E40" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="F40" s="10" t="s">
+      <c r="F40" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="G40" s="10"/>
-      <c r="H40" s="10" t="s">
+      <c r="G40" s="7"/>
+      <c r="H40" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="I40" s="10"/>
-      <c r="J40" s="10"/>
+      <c r="I40" s="7"/>
+      <c r="J40" s="7"/>
     </row>
     <row r="41" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="10"/>
-      <c r="B41" s="10"/>
-      <c r="C41" s="10"/>
-      <c r="D41" s="10"/>
-      <c r="E41" s="10"/>
-      <c r="F41" s="10"/>
-      <c r="G41" s="10"/>
-      <c r="H41" s="10"/>
-      <c r="I41" s="10"/>
-      <c r="J41" s="10"/>
+      <c r="A41" s="7"/>
+      <c r="B41" s="7"/>
+      <c r="C41" s="7"/>
+      <c r="D41" s="7"/>
+      <c r="E41" s="7"/>
+      <c r="F41" s="7"/>
+      <c r="G41" s="7"/>
+      <c r="H41" s="7"/>
+      <c r="I41" s="7"/>
+      <c r="J41" s="7"/>
     </row>
     <row r="42" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="10" t="s">
+      <c r="A42" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B42" s="10"/>
-      <c r="C42" s="10" t="s">
+      <c r="B42" s="7"/>
+      <c r="C42" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="D42" s="10"/>
-      <c r="E42" s="10" t="s">
+      <c r="D42" s="7"/>
+      <c r="E42" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="F42" s="10" t="s">
+      <c r="F42" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="G42" s="10"/>
-      <c r="H42" s="10" t="s">
+      <c r="G42" s="7"/>
+      <c r="H42" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="I42" s="10"/>
-      <c r="J42" s="10"/>
+      <c r="I42" s="7"/>
+      <c r="J42" s="7"/>
     </row>
     <row r="43" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="10"/>
-      <c r="B43" s="10"/>
-      <c r="C43" s="10"/>
-      <c r="D43" s="10"/>
-      <c r="E43" s="10"/>
-      <c r="F43" s="10"/>
-      <c r="G43" s="10"/>
-      <c r="H43" s="10"/>
-      <c r="I43" s="10"/>
-      <c r="J43" s="10"/>
+      <c r="A43" s="7"/>
+      <c r="B43" s="7"/>
+      <c r="C43" s="7"/>
+      <c r="D43" s="7"/>
+      <c r="E43" s="7"/>
+      <c r="F43" s="7"/>
+      <c r="G43" s="7"/>
+      <c r="H43" s="7"/>
+      <c r="I43" s="7"/>
+      <c r="J43" s="7"/>
     </row>
     <row r="44" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="10" t="s">
+      <c r="A44" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B44" s="10"/>
-      <c r="C44" s="10" t="s">
+      <c r="B44" s="7"/>
+      <c r="C44" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="D44" s="10"/>
-      <c r="E44" s="10" t="s">
+      <c r="D44" s="7"/>
+      <c r="E44" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="F44" s="10" t="s">
+      <c r="F44" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="G44" s="10"/>
-      <c r="H44" s="10" t="s">
+      <c r="G44" s="7"/>
+      <c r="H44" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="I44" s="10"/>
-      <c r="J44" s="10"/>
+      <c r="I44" s="7"/>
+      <c r="J44" s="7"/>
     </row>
     <row r="45" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="10"/>
-      <c r="B45" s="10"/>
-      <c r="C45" s="10"/>
-      <c r="D45" s="10"/>
-      <c r="E45" s="10"/>
-      <c r="F45" s="10"/>
-      <c r="G45" s="10"/>
-      <c r="H45" s="10"/>
-      <c r="I45" s="10"/>
-      <c r="J45" s="10"/>
+      <c r="A45" s="7"/>
+      <c r="B45" s="7"/>
+      <c r="C45" s="7"/>
+      <c r="D45" s="7"/>
+      <c r="E45" s="7"/>
+      <c r="F45" s="7"/>
+      <c r="G45" s="7"/>
+      <c r="H45" s="7"/>
+      <c r="I45" s="7"/>
+      <c r="J45" s="7"/>
     </row>
     <row r="46" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="10" t="s">
+      <c r="A46" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B46" s="10"/>
-      <c r="C46" s="10" t="s">
+      <c r="B46" s="7"/>
+      <c r="C46" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="D46" s="10"/>
-      <c r="E46" s="10" t="s">
+      <c r="D46" s="7"/>
+      <c r="E46" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="F46" s="10" t="s">
+      <c r="F46" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="G46" s="10"/>
-      <c r="H46" s="10" t="s">
+      <c r="G46" s="7"/>
+      <c r="H46" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="I46" s="10"/>
-      <c r="J46" s="10"/>
+      <c r="I46" s="7"/>
+      <c r="J46" s="7"/>
     </row>
     <row r="47" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="10"/>
-      <c r="B47" s="10"/>
-      <c r="C47" s="10"/>
-      <c r="D47" s="10"/>
-      <c r="E47" s="10"/>
-      <c r="F47" s="10"/>
-      <c r="G47" s="10"/>
-      <c r="H47" s="10"/>
-      <c r="I47" s="10"/>
-      <c r="J47" s="10"/>
+      <c r="A47" s="7"/>
+      <c r="B47" s="7"/>
+      <c r="C47" s="7"/>
+      <c r="D47" s="7"/>
+      <c r="E47" s="7"/>
+      <c r="F47" s="7"/>
+      <c r="G47" s="7"/>
+      <c r="H47" s="7"/>
+      <c r="I47" s="7"/>
+      <c r="J47" s="7"/>
     </row>
     <row r="48" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="10" t="s">
+      <c r="A48" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B48" s="10"/>
-      <c r="C48" s="10" t="s">
+      <c r="B48" s="7"/>
+      <c r="C48" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="D48" s="10"/>
-      <c r="E48" s="10" t="s">
+      <c r="D48" s="7"/>
+      <c r="E48" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="F48" s="10" t="s">
+      <c r="F48" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="G48" s="10"/>
-      <c r="H48" s="10" t="s">
+      <c r="G48" s="7"/>
+      <c r="H48" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="I48" s="10"/>
-      <c r="J48" s="10"/>
+      <c r="I48" s="7"/>
+      <c r="J48" s="7"/>
     </row>
     <row r="49" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="10"/>
-      <c r="B49" s="10"/>
-      <c r="C49" s="10"/>
-      <c r="D49" s="10"/>
-      <c r="E49" s="10"/>
-      <c r="F49" s="10"/>
-      <c r="G49" s="10"/>
-      <c r="H49" s="10"/>
-      <c r="I49" s="10"/>
-      <c r="J49" s="10"/>
+      <c r="A49" s="7"/>
+      <c r="B49" s="7"/>
+      <c r="C49" s="7"/>
+      <c r="D49" s="7"/>
+      <c r="E49" s="7"/>
+      <c r="F49" s="7"/>
+      <c r="G49" s="7"/>
+      <c r="H49" s="7"/>
+      <c r="I49" s="7"/>
+      <c r="J49" s="7"/>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A54" s="13" t="s">
+      <c r="A54" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="B54" s="13"/>
-      <c r="C54" s="13" t="s">
+      <c r="B54" s="20"/>
+      <c r="C54" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="D54" s="13"/>
-      <c r="E54" s="3" t="s">
+      <c r="D54" s="20"/>
+      <c r="E54" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F54" s="13" t="s">
+      <c r="F54" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="G54" s="13"/>
-      <c r="H54" s="13" t="s">
+      <c r="G54" s="20"/>
+      <c r="H54" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="I54" s="13"/>
-      <c r="J54" s="13"/>
+      <c r="I54" s="20"/>
+      <c r="J54" s="20"/>
     </row>
     <row r="55" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="10" t="s">
+      <c r="A55" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B55" s="10"/>
-      <c r="C55" s="10" t="s">
+      <c r="B55" s="7"/>
+      <c r="C55" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D55" s="10"/>
-      <c r="E55" s="10" t="s">
+      <c r="D55" s="7"/>
+      <c r="E55" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="F55" s="10" t="s">
+      <c r="F55" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="G55" s="10"/>
-      <c r="H55" s="10" t="s">
+      <c r="G55" s="7"/>
+      <c r="H55" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="I55" s="10"/>
-      <c r="J55" s="10"/>
+      <c r="I55" s="7"/>
+      <c r="J55" s="7"/>
     </row>
     <row r="56" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="10"/>
-      <c r="B56" s="10"/>
-      <c r="C56" s="10"/>
-      <c r="D56" s="10"/>
-      <c r="E56" s="10"/>
-      <c r="F56" s="10"/>
-      <c r="G56" s="10"/>
-      <c r="H56" s="10"/>
-      <c r="I56" s="10"/>
-      <c r="J56" s="10"/>
+      <c r="A56" s="7"/>
+      <c r="B56" s="7"/>
+      <c r="C56" s="7"/>
+      <c r="D56" s="7"/>
+      <c r="E56" s="7"/>
+      <c r="F56" s="7"/>
+      <c r="G56" s="7"/>
+      <c r="H56" s="7"/>
+      <c r="I56" s="7"/>
+      <c r="J56" s="7"/>
     </row>
     <row r="57" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="10" t="s">
+      <c r="A57" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B57" s="10"/>
-      <c r="C57" s="10" t="s">
+      <c r="B57" s="7"/>
+      <c r="C57" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D57" s="10"/>
-      <c r="E57" s="10" t="s">
+      <c r="D57" s="7"/>
+      <c r="E57" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="F57" s="10" t="s">
+      <c r="F57" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="G57" s="10"/>
-      <c r="H57" s="10" t="s">
+      <c r="G57" s="7"/>
+      <c r="H57" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="I57" s="10"/>
-      <c r="J57" s="10"/>
+      <c r="I57" s="7"/>
+      <c r="J57" s="7"/>
     </row>
     <row r="58" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="10"/>
-      <c r="B58" s="10"/>
-      <c r="C58" s="10"/>
-      <c r="D58" s="10"/>
-      <c r="E58" s="10"/>
-      <c r="F58" s="10"/>
-      <c r="G58" s="10"/>
-      <c r="H58" s="10"/>
-      <c r="I58" s="10"/>
-      <c r="J58" s="10"/>
+      <c r="A58" s="7"/>
+      <c r="B58" s="7"/>
+      <c r="C58" s="7"/>
+      <c r="D58" s="7"/>
+      <c r="E58" s="7"/>
+      <c r="F58" s="7"/>
+      <c r="G58" s="7"/>
+      <c r="H58" s="7"/>
+      <c r="I58" s="7"/>
+      <c r="J58" s="7"/>
     </row>
     <row r="59" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="10" t="s">
+      <c r="A59" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B59" s="10"/>
-      <c r="C59" s="10" t="s">
+      <c r="B59" s="7"/>
+      <c r="C59" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D59" s="10"/>
-      <c r="E59" s="10" t="s">
+      <c r="D59" s="7"/>
+      <c r="E59" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="F59" s="10" t="s">
+      <c r="F59" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="G59" s="10"/>
-      <c r="H59" s="10" t="s">
+      <c r="G59" s="7"/>
+      <c r="H59" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="I59" s="10"/>
-      <c r="J59" s="10"/>
+      <c r="I59" s="7"/>
+      <c r="J59" s="7"/>
     </row>
     <row r="60" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="10"/>
-      <c r="B60" s="10"/>
-      <c r="C60" s="10"/>
-      <c r="D60" s="10"/>
-      <c r="E60" s="10"/>
-      <c r="F60" s="10"/>
-      <c r="G60" s="10"/>
-      <c r="H60" s="10"/>
-      <c r="I60" s="10"/>
-      <c r="J60" s="10"/>
+      <c r="A60" s="7"/>
+      <c r="B60" s="7"/>
+      <c r="C60" s="7"/>
+      <c r="D60" s="7"/>
+      <c r="E60" s="7"/>
+      <c r="F60" s="7"/>
+      <c r="G60" s="7"/>
+      <c r="H60" s="7"/>
+      <c r="I60" s="7"/>
+      <c r="J60" s="7"/>
     </row>
     <row r="61" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="10" t="s">
+      <c r="A61" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B61" s="10"/>
-      <c r="C61" s="10" t="s">
+      <c r="B61" s="7"/>
+      <c r="C61" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D61" s="10"/>
-      <c r="E61" s="10" t="s">
+      <c r="D61" s="7"/>
+      <c r="E61" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="F61" s="10" t="s">
+      <c r="F61" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="G61" s="10"/>
-      <c r="H61" s="10" t="s">
+      <c r="G61" s="7"/>
+      <c r="H61" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="I61" s="10"/>
-      <c r="J61" s="10"/>
+      <c r="I61" s="7"/>
+      <c r="J61" s="7"/>
     </row>
     <row r="62" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="10"/>
-      <c r="B62" s="10"/>
-      <c r="C62" s="10"/>
-      <c r="D62" s="10"/>
-      <c r="E62" s="10"/>
-      <c r="F62" s="10"/>
-      <c r="G62" s="10"/>
-      <c r="H62" s="10"/>
-      <c r="I62" s="10"/>
-      <c r="J62" s="10"/>
+      <c r="A62" s="7"/>
+      <c r="B62" s="7"/>
+      <c r="C62" s="7"/>
+      <c r="D62" s="7"/>
+      <c r="E62" s="7"/>
+      <c r="F62" s="7"/>
+      <c r="G62" s="7"/>
+      <c r="H62" s="7"/>
+      <c r="I62" s="7"/>
+      <c r="J62" s="7"/>
     </row>
     <row r="63" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="10" t="s">
+      <c r="A63" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B63" s="10"/>
-      <c r="C63" s="10" t="s">
+      <c r="B63" s="7"/>
+      <c r="C63" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D63" s="10"/>
-      <c r="E63" s="10" t="s">
+      <c r="D63" s="7"/>
+      <c r="E63" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="F63" s="10" t="s">
+      <c r="F63" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="G63" s="10"/>
-      <c r="H63" s="10" t="s">
+      <c r="G63" s="7"/>
+      <c r="H63" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="I63" s="10"/>
-      <c r="J63" s="10"/>
+      <c r="I63" s="7"/>
+      <c r="J63" s="7"/>
     </row>
     <row r="64" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="10"/>
-      <c r="B64" s="10"/>
-      <c r="C64" s="10"/>
-      <c r="D64" s="10"/>
-      <c r="E64" s="10"/>
-      <c r="F64" s="10"/>
-      <c r="G64" s="10"/>
-      <c r="H64" s="10"/>
-      <c r="I64" s="10"/>
-      <c r="J64" s="10"/>
+      <c r="A64" s="7"/>
+      <c r="B64" s="7"/>
+      <c r="C64" s="7"/>
+      <c r="D64" s="7"/>
+      <c r="E64" s="7"/>
+      <c r="F64" s="7"/>
+      <c r="G64" s="7"/>
+      <c r="H64" s="7"/>
+      <c r="I64" s="7"/>
+      <c r="J64" s="7"/>
     </row>
     <row r="65" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="10" t="s">
+      <c r="A65" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B65" s="10"/>
-      <c r="C65" s="10" t="s">
+      <c r="B65" s="7"/>
+      <c r="C65" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D65" s="10"/>
-      <c r="E65" s="10" t="s">
+      <c r="D65" s="7"/>
+      <c r="E65" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="F65" s="10" t="s">
+      <c r="F65" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="G65" s="10"/>
-      <c r="H65" s="10" t="s">
+      <c r="G65" s="7"/>
+      <c r="H65" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="I65" s="10"/>
-      <c r="J65" s="10"/>
+      <c r="I65" s="7"/>
+      <c r="J65" s="7"/>
     </row>
     <row r="66" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="10"/>
-      <c r="B66" s="10"/>
-      <c r="C66" s="10"/>
-      <c r="D66" s="10"/>
-      <c r="E66" s="10"/>
-      <c r="F66" s="10"/>
-      <c r="G66" s="10"/>
-      <c r="H66" s="10"/>
-      <c r="I66" s="10"/>
-      <c r="J66" s="10"/>
+      <c r="A66" s="7"/>
+      <c r="B66" s="7"/>
+      <c r="C66" s="7"/>
+      <c r="D66" s="7"/>
+      <c r="E66" s="7"/>
+      <c r="F66" s="7"/>
+      <c r="G66" s="7"/>
+      <c r="H66" s="7"/>
+      <c r="I66" s="7"/>
+      <c r="J66" s="7"/>
     </row>
     <row r="67" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="10" t="s">
+      <c r="A67" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B67" s="10"/>
-      <c r="C67" s="10" t="s">
+      <c r="B67" s="7"/>
+      <c r="C67" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="D67" s="10"/>
-      <c r="E67" s="10" t="s">
+      <c r="D67" s="7"/>
+      <c r="E67" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="F67" s="10" t="s">
+      <c r="F67" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="G67" s="10"/>
-      <c r="H67" s="10" t="s">
+      <c r="G67" s="7"/>
+      <c r="H67" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="I67" s="10"/>
-      <c r="J67" s="10"/>
+      <c r="I67" s="7"/>
+      <c r="J67" s="7"/>
     </row>
     <row r="68" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="10"/>
-      <c r="B68" s="10"/>
-      <c r="C68" s="10"/>
-      <c r="D68" s="10"/>
-      <c r="E68" s="10"/>
-      <c r="F68" s="10"/>
-      <c r="G68" s="10"/>
-      <c r="H68" s="10"/>
-      <c r="I68" s="10"/>
-      <c r="J68" s="10"/>
+      <c r="A68" s="7"/>
+      <c r="B68" s="7"/>
+      <c r="C68" s="7"/>
+      <c r="D68" s="7"/>
+      <c r="E68" s="7"/>
+      <c r="F68" s="7"/>
+      <c r="G68" s="7"/>
+      <c r="H68" s="7"/>
+      <c r="I68" s="7"/>
+      <c r="J68" s="7"/>
     </row>
     <row r="69" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="10" t="s">
+      <c r="A69" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B69" s="10"/>
-      <c r="C69" s="10" t="s">
+      <c r="B69" s="7"/>
+      <c r="C69" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="D69" s="10"/>
-      <c r="E69" s="10" t="s">
+      <c r="D69" s="7"/>
+      <c r="E69" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="F69" s="10" t="s">
+      <c r="F69" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="G69" s="10"/>
-      <c r="H69" s="10" t="s">
+      <c r="G69" s="7"/>
+      <c r="H69" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="I69" s="10"/>
-      <c r="J69" s="10"/>
+      <c r="I69" s="7"/>
+      <c r="J69" s="7"/>
     </row>
     <row r="70" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="10"/>
-      <c r="B70" s="10"/>
-      <c r="C70" s="10"/>
-      <c r="D70" s="10"/>
-      <c r="E70" s="10"/>
-      <c r="F70" s="10"/>
-      <c r="G70" s="10"/>
-      <c r="H70" s="10"/>
-      <c r="I70" s="10"/>
-      <c r="J70" s="10"/>
+      <c r="A70" s="7"/>
+      <c r="B70" s="7"/>
+      <c r="C70" s="7"/>
+      <c r="D70" s="7"/>
+      <c r="E70" s="7"/>
+      <c r="F70" s="7"/>
+      <c r="G70" s="7"/>
+      <c r="H70" s="7"/>
+      <c r="I70" s="7"/>
+      <c r="J70" s="7"/>
     </row>
     <row r="71" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="10" t="s">
+      <c r="A71" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B71" s="10"/>
-      <c r="C71" s="10" t="s">
+      <c r="B71" s="7"/>
+      <c r="C71" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="D71" s="10"/>
-      <c r="E71" s="10" t="s">
+      <c r="D71" s="7"/>
+      <c r="E71" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="F71" s="10" t="s">
+      <c r="F71" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="G71" s="10"/>
-      <c r="H71" s="10" t="s">
+      <c r="G71" s="7"/>
+      <c r="H71" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="I71" s="10"/>
-      <c r="J71" s="10"/>
+      <c r="I71" s="7"/>
+      <c r="J71" s="7"/>
     </row>
     <row r="72" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="10"/>
-      <c r="B72" s="10"/>
-      <c r="C72" s="10"/>
-      <c r="D72" s="10"/>
-      <c r="E72" s="10"/>
-      <c r="F72" s="10"/>
-      <c r="G72" s="10"/>
-      <c r="H72" s="10"/>
-      <c r="I72" s="10"/>
-      <c r="J72" s="10"/>
+      <c r="A72" s="7"/>
+      <c r="B72" s="7"/>
+      <c r="C72" s="7"/>
+      <c r="D72" s="7"/>
+      <c r="E72" s="7"/>
+      <c r="F72" s="7"/>
+      <c r="G72" s="7"/>
+      <c r="H72" s="7"/>
+      <c r="I72" s="7"/>
+      <c r="J72" s="7"/>
     </row>
     <row r="73" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="10" t="s">
+      <c r="A73" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B73" s="10"/>
-      <c r="C73" s="10" t="s">
+      <c r="B73" s="7"/>
+      <c r="C73" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="D73" s="10"/>
-      <c r="E73" s="10" t="s">
+      <c r="D73" s="7"/>
+      <c r="E73" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="F73" s="10" t="s">
+      <c r="F73" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="G73" s="10"/>
-      <c r="H73" s="10" t="s">
+      <c r="G73" s="7"/>
+      <c r="H73" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="I73" s="10"/>
-      <c r="J73" s="10"/>
+      <c r="I73" s="7"/>
+      <c r="J73" s="7"/>
     </row>
     <row r="74" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="10"/>
-      <c r="B74" s="10"/>
-      <c r="C74" s="10"/>
-      <c r="D74" s="10"/>
-      <c r="E74" s="10"/>
-      <c r="F74" s="10"/>
-      <c r="G74" s="10"/>
-      <c r="H74" s="10"/>
-      <c r="I74" s="10"/>
-      <c r="J74" s="10"/>
+      <c r="A74" s="7"/>
+      <c r="B74" s="7"/>
+      <c r="C74" s="7"/>
+      <c r="D74" s="7"/>
+      <c r="E74" s="7"/>
+      <c r="F74" s="7"/>
+      <c r="G74" s="7"/>
+      <c r="H74" s="7"/>
+      <c r="I74" s="7"/>
+      <c r="J74" s="7"/>
     </row>
     <row r="75" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="10" t="s">
+      <c r="A75" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B75" s="10"/>
-      <c r="C75" s="10" t="s">
+      <c r="B75" s="7"/>
+      <c r="C75" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="D75" s="10"/>
-      <c r="E75" s="10" t="s">
+      <c r="D75" s="7"/>
+      <c r="E75" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="F75" s="10" t="s">
+      <c r="F75" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="G75" s="10"/>
-      <c r="H75" s="10" t="s">
+      <c r="G75" s="7"/>
+      <c r="H75" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="I75" s="10"/>
-      <c r="J75" s="10"/>
+      <c r="I75" s="7"/>
+      <c r="J75" s="7"/>
     </row>
     <row r="76" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="10"/>
-      <c r="B76" s="10"/>
-      <c r="C76" s="10"/>
-      <c r="D76" s="10"/>
-      <c r="E76" s="10"/>
-      <c r="F76" s="10"/>
-      <c r="G76" s="10"/>
-      <c r="H76" s="10"/>
-      <c r="I76" s="10"/>
-      <c r="J76" s="10"/>
+      <c r="A76" s="7"/>
+      <c r="B76" s="7"/>
+      <c r="C76" s="7"/>
+      <c r="D76" s="7"/>
+      <c r="E76" s="7"/>
+      <c r="F76" s="7"/>
+      <c r="G76" s="7"/>
+      <c r="H76" s="7"/>
+      <c r="I76" s="7"/>
+      <c r="J76" s="7"/>
     </row>
     <row r="77" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="10" t="s">
+      <c r="A77" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B77" s="10"/>
-      <c r="C77" s="10" t="s">
+      <c r="B77" s="7"/>
+      <c r="C77" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="D77" s="10"/>
-      <c r="E77" s="10" t="s">
+      <c r="D77" s="7"/>
+      <c r="E77" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="F77" s="10" t="s">
+      <c r="F77" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="G77" s="10"/>
-      <c r="H77" s="10" t="s">
+      <c r="G77" s="7"/>
+      <c r="H77" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="I77" s="10"/>
-      <c r="J77" s="10"/>
+      <c r="I77" s="7"/>
+      <c r="J77" s="7"/>
     </row>
     <row r="78" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="10"/>
-      <c r="B78" s="10"/>
-      <c r="C78" s="10"/>
-      <c r="D78" s="10"/>
-      <c r="E78" s="10"/>
-      <c r="F78" s="10"/>
-      <c r="G78" s="10"/>
-      <c r="H78" s="10"/>
-      <c r="I78" s="10"/>
-      <c r="J78" s="10"/>
+      <c r="A78" s="7"/>
+      <c r="B78" s="7"/>
+      <c r="C78" s="7"/>
+      <c r="D78" s="7"/>
+      <c r="E78" s="7"/>
+      <c r="F78" s="7"/>
+      <c r="G78" s="7"/>
+      <c r="H78" s="7"/>
+      <c r="I78" s="7"/>
+      <c r="J78" s="7"/>
     </row>
     <row r="82" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="83" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A83" s="13" t="s">
+      <c r="A83" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="B83" s="13"/>
-      <c r="C83" s="13" t="s">
+      <c r="B83" s="20"/>
+      <c r="C83" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="D83" s="13"/>
-      <c r="E83" s="3" t="s">
+      <c r="D83" s="20"/>
+      <c r="E83" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F83" s="13" t="s">
+      <c r="F83" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="G83" s="13"/>
-      <c r="H83" s="13" t="s">
+      <c r="G83" s="20"/>
+      <c r="H83" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="I83" s="13"/>
-      <c r="J83" s="13"/>
+      <c r="I83" s="20"/>
+      <c r="J83" s="20"/>
     </row>
     <row r="84" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="10" t="s">
+      <c r="A84" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B84" s="10"/>
-      <c r="C84" s="10" t="s">
+      <c r="B84" s="7"/>
+      <c r="C84" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D84" s="10"/>
-      <c r="E84" s="10" t="s">
+      <c r="D84" s="7"/>
+      <c r="E84" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F84" s="10" t="s">
+      <c r="F84" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="G84" s="10"/>
-      <c r="H84" s="10" t="s">
+      <c r="G84" s="7"/>
+      <c r="H84" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="I84" s="10"/>
-      <c r="J84" s="10"/>
+      <c r="I84" s="7"/>
+      <c r="J84" s="7"/>
     </row>
     <row r="85" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="10"/>
-      <c r="B85" s="10"/>
-      <c r="C85" s="10"/>
-      <c r="D85" s="10"/>
-      <c r="E85" s="10"/>
-      <c r="F85" s="10"/>
-      <c r="G85" s="10"/>
-      <c r="H85" s="10"/>
-      <c r="I85" s="10"/>
-      <c r="J85" s="10"/>
+      <c r="A85" s="7"/>
+      <c r="B85" s="7"/>
+      <c r="C85" s="7"/>
+      <c r="D85" s="7"/>
+      <c r="E85" s="7"/>
+      <c r="F85" s="7"/>
+      <c r="G85" s="7"/>
+      <c r="H85" s="7"/>
+      <c r="I85" s="7"/>
+      <c r="J85" s="7"/>
     </row>
     <row r="86" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="10" t="s">
+      <c r="A86" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B86" s="10"/>
-      <c r="C86" s="10" t="s">
+      <c r="B86" s="7"/>
+      <c r="C86" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D86" s="10"/>
-      <c r="E86" s="10" t="s">
+      <c r="D86" s="7"/>
+      <c r="E86" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F86" s="14" t="s">
+      <c r="F86" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="G86" s="14"/>
-      <c r="H86" s="10" t="s">
+      <c r="G86" s="10"/>
+      <c r="H86" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="I86" s="10"/>
-      <c r="J86" s="10"/>
+      <c r="I86" s="7"/>
+      <c r="J86" s="7"/>
     </row>
     <row r="87" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="10"/>
-      <c r="B87" s="10"/>
-      <c r="C87" s="10"/>
-      <c r="D87" s="10"/>
-      <c r="E87" s="10"/>
-      <c r="F87" s="14"/>
-      <c r="G87" s="14"/>
-      <c r="H87" s="10"/>
-      <c r="I87" s="10"/>
-      <c r="J87" s="10"/>
+      <c r="A87" s="7"/>
+      <c r="B87" s="7"/>
+      <c r="C87" s="7"/>
+      <c r="D87" s="7"/>
+      <c r="E87" s="7"/>
+      <c r="F87" s="10"/>
+      <c r="G87" s="10"/>
+      <c r="H87" s="7"/>
+      <c r="I87" s="7"/>
+      <c r="J87" s="7"/>
     </row>
     <row r="88" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="10" t="s">
+      <c r="A88" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B88" s="10"/>
-      <c r="C88" s="10" t="s">
+      <c r="B88" s="7"/>
+      <c r="C88" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D88" s="10"/>
-      <c r="E88" s="10" t="s">
+      <c r="D88" s="7"/>
+      <c r="E88" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F88" s="14" t="s">
+      <c r="F88" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="G88" s="14"/>
-      <c r="H88" s="10" t="s">
+      <c r="G88" s="10"/>
+      <c r="H88" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="I88" s="10"/>
-      <c r="J88" s="10"/>
+      <c r="I88" s="7"/>
+      <c r="J88" s="7"/>
     </row>
     <row r="89" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="10"/>
-      <c r="B89" s="10"/>
-      <c r="C89" s="10"/>
-      <c r="D89" s="10"/>
-      <c r="E89" s="10"/>
-      <c r="F89" s="14"/>
-      <c r="G89" s="14"/>
-      <c r="H89" s="10"/>
-      <c r="I89" s="10"/>
-      <c r="J89" s="10"/>
+      <c r="A89" s="7"/>
+      <c r="B89" s="7"/>
+      <c r="C89" s="7"/>
+      <c r="D89" s="7"/>
+      <c r="E89" s="7"/>
+      <c r="F89" s="10"/>
+      <c r="G89" s="10"/>
+      <c r="H89" s="7"/>
+      <c r="I89" s="7"/>
+      <c r="J89" s="7"/>
     </row>
     <row r="90" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="10" t="s">
+      <c r="A90" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B90" s="10"/>
-      <c r="C90" s="10" t="s">
+      <c r="B90" s="7"/>
+      <c r="C90" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D90" s="10"/>
-      <c r="E90" s="10" t="s">
+      <c r="D90" s="7"/>
+      <c r="E90" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F90" s="14" t="s">
+      <c r="F90" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="G90" s="14"/>
-      <c r="H90" s="10" t="s">
+      <c r="G90" s="10"/>
+      <c r="H90" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="I90" s="10"/>
-      <c r="J90" s="10"/>
+      <c r="I90" s="7"/>
+      <c r="J90" s="7"/>
     </row>
     <row r="91" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="10"/>
-      <c r="B91" s="10"/>
-      <c r="C91" s="10"/>
-      <c r="D91" s="10"/>
-      <c r="E91" s="10"/>
-      <c r="F91" s="14"/>
-      <c r="G91" s="14"/>
-      <c r="H91" s="10"/>
-      <c r="I91" s="10"/>
-      <c r="J91" s="10"/>
+      <c r="A91" s="7"/>
+      <c r="B91" s="7"/>
+      <c r="C91" s="7"/>
+      <c r="D91" s="7"/>
+      <c r="E91" s="7"/>
+      <c r="F91" s="10"/>
+      <c r="G91" s="10"/>
+      <c r="H91" s="7"/>
+      <c r="I91" s="7"/>
+      <c r="J91" s="7"/>
     </row>
     <row r="92" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="10" t="s">
+      <c r="A92" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B92" s="10"/>
-      <c r="C92" s="10" t="s">
+      <c r="B92" s="7"/>
+      <c r="C92" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D92" s="10"/>
-      <c r="E92" s="10" t="s">
+      <c r="D92" s="7"/>
+      <c r="E92" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F92" s="14" t="s">
+      <c r="F92" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="G92" s="14"/>
-      <c r="H92" s="10" t="s">
+      <c r="G92" s="10"/>
+      <c r="H92" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="I92" s="10"/>
-      <c r="J92" s="10"/>
+      <c r="I92" s="7"/>
+      <c r="J92" s="7"/>
     </row>
     <row r="93" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="10"/>
-      <c r="B93" s="10"/>
-      <c r="C93" s="10"/>
-      <c r="D93" s="10"/>
-      <c r="E93" s="10"/>
-      <c r="F93" s="14"/>
-      <c r="G93" s="14"/>
-      <c r="H93" s="10"/>
-      <c r="I93" s="10"/>
-      <c r="J93" s="10"/>
+      <c r="A93" s="7"/>
+      <c r="B93" s="7"/>
+      <c r="C93" s="7"/>
+      <c r="D93" s="7"/>
+      <c r="E93" s="7"/>
+      <c r="F93" s="10"/>
+      <c r="G93" s="10"/>
+      <c r="H93" s="7"/>
+      <c r="I93" s="7"/>
+      <c r="J93" s="7"/>
     </row>
     <row r="94" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="10" t="s">
+      <c r="A94" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B94" s="10"/>
-      <c r="C94" s="10" t="s">
+      <c r="B94" s="7"/>
+      <c r="C94" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D94" s="10"/>
-      <c r="E94" s="10" t="s">
+      <c r="D94" s="7"/>
+      <c r="E94" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F94" s="14" t="s">
+      <c r="F94" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="G94" s="14"/>
-      <c r="H94" s="10" t="s">
+      <c r="G94" s="10"/>
+      <c r="H94" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="I94" s="10"/>
-      <c r="J94" s="10"/>
+      <c r="I94" s="7"/>
+      <c r="J94" s="7"/>
     </row>
     <row r="95" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="10"/>
-      <c r="B95" s="10"/>
-      <c r="C95" s="10"/>
-      <c r="D95" s="10"/>
-      <c r="E95" s="10"/>
-      <c r="F95" s="14"/>
-      <c r="G95" s="14"/>
-      <c r="H95" s="10"/>
-      <c r="I95" s="10"/>
-      <c r="J95" s="10"/>
+      <c r="A95" s="7"/>
+      <c r="B95" s="7"/>
+      <c r="C95" s="7"/>
+      <c r="D95" s="7"/>
+      <c r="E95" s="7"/>
+      <c r="F95" s="10"/>
+      <c r="G95" s="10"/>
+      <c r="H95" s="7"/>
+      <c r="I95" s="7"/>
+      <c r="J95" s="7"/>
     </row>
     <row r="96" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="10" t="s">
+      <c r="A96" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B96" s="10"/>
-      <c r="C96" s="10" t="s">
+      <c r="B96" s="7"/>
+      <c r="C96" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D96" s="10"/>
-      <c r="E96" s="10" t="s">
+      <c r="D96" s="7"/>
+      <c r="E96" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F96" s="14" t="s">
+      <c r="F96" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="G96" s="14"/>
-      <c r="H96" s="10" t="s">
+      <c r="G96" s="10"/>
+      <c r="H96" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="I96" s="10"/>
-      <c r="J96" s="10"/>
+      <c r="I96" s="7"/>
+      <c r="J96" s="7"/>
     </row>
     <row r="97" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="10"/>
-      <c r="B97" s="10"/>
-      <c r="C97" s="10"/>
-      <c r="D97" s="10"/>
-      <c r="E97" s="10"/>
-      <c r="F97" s="14"/>
-      <c r="G97" s="14"/>
-      <c r="H97" s="10"/>
-      <c r="I97" s="10"/>
-      <c r="J97" s="10"/>
+      <c r="A97" s="7"/>
+      <c r="B97" s="7"/>
+      <c r="C97" s="7"/>
+      <c r="D97" s="7"/>
+      <c r="E97" s="7"/>
+      <c r="F97" s="10"/>
+      <c r="G97" s="10"/>
+      <c r="H97" s="7"/>
+      <c r="I97" s="7"/>
+      <c r="J97" s="7"/>
     </row>
     <row r="98" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="10" t="s">
+      <c r="A98" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B98" s="10"/>
-      <c r="C98" s="10" t="s">
+      <c r="B98" s="7"/>
+      <c r="C98" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D98" s="10"/>
-      <c r="E98" s="10" t="s">
+      <c r="D98" s="7"/>
+      <c r="E98" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F98" s="14" t="s">
+      <c r="F98" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="G98" s="14"/>
-      <c r="H98" s="10" t="s">
+      <c r="G98" s="10"/>
+      <c r="H98" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="I98" s="10"/>
-      <c r="J98" s="10"/>
+      <c r="I98" s="7"/>
+      <c r="J98" s="7"/>
     </row>
     <row r="99" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="10"/>
-      <c r="B99" s="10"/>
-      <c r="C99" s="10"/>
-      <c r="D99" s="10"/>
-      <c r="E99" s="10"/>
-      <c r="F99" s="14"/>
-      <c r="G99" s="14"/>
-      <c r="H99" s="10"/>
-      <c r="I99" s="10"/>
-      <c r="J99" s="10"/>
+      <c r="A99" s="7"/>
+      <c r="B99" s="7"/>
+      <c r="C99" s="7"/>
+      <c r="D99" s="7"/>
+      <c r="E99" s="7"/>
+      <c r="F99" s="10"/>
+      <c r="G99" s="10"/>
+      <c r="H99" s="7"/>
+      <c r="I99" s="7"/>
+      <c r="J99" s="7"/>
     </row>
     <row r="100" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="4" t="s">
+      <c r="A100" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B100" s="5"/>
-      <c r="C100" s="4" t="s">
+      <c r="B100" s="4"/>
+      <c r="C100" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D100" s="5"/>
+      <c r="D100" s="4"/>
       <c r="E100" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="F100" s="14" t="s">
+      <c r="F100" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="G100" s="14"/>
-      <c r="H100" s="4" t="s">
+      <c r="G100" s="10"/>
+      <c r="H100" s="3" t="s">
         <v>24</v>
       </c>
       <c r="I100" s="11"/>
-      <c r="J100" s="5"/>
+      <c r="J100" s="4"/>
     </row>
     <row r="101" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="6"/>
-      <c r="B101" s="7"/>
-      <c r="C101" s="6"/>
-      <c r="D101" s="7"/>
+      <c r="A101" s="5"/>
+      <c r="B101" s="6"/>
+      <c r="C101" s="5"/>
+      <c r="D101" s="6"/>
       <c r="E101" s="9"/>
-      <c r="F101" s="14"/>
-      <c r="G101" s="14"/>
-      <c r="H101" s="6"/>
+      <c r="F101" s="10"/>
+      <c r="G101" s="10"/>
+      <c r="H101" s="5"/>
       <c r="I101" s="12"/>
-      <c r="J101" s="7"/>
+      <c r="J101" s="6"/>
     </row>
     <row r="102" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="4" t="s">
+      <c r="A102" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B102" s="5"/>
-      <c r="C102" s="4" t="s">
+      <c r="B102" s="4"/>
+      <c r="C102" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D102" s="5"/>
+      <c r="D102" s="4"/>
       <c r="E102" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="F102" s="14" t="s">
+      <c r="F102" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="G102" s="14"/>
-      <c r="H102" s="4" t="s">
+      <c r="G102" s="10"/>
+      <c r="H102" s="3" t="s">
         <v>69</v>
       </c>
       <c r="I102" s="11"/>
-      <c r="J102" s="5"/>
+      <c r="J102" s="4"/>
     </row>
     <row r="103" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="6"/>
-      <c r="B103" s="7"/>
-      <c r="C103" s="6"/>
-      <c r="D103" s="7"/>
+      <c r="A103" s="5"/>
+      <c r="B103" s="6"/>
+      <c r="C103" s="5"/>
+      <c r="D103" s="6"/>
       <c r="E103" s="9"/>
-      <c r="F103" s="14"/>
-      <c r="G103" s="14"/>
-      <c r="H103" s="6"/>
+      <c r="F103" s="10"/>
+      <c r="G103" s="10"/>
+      <c r="H103" s="5"/>
       <c r="I103" s="12"/>
-      <c r="J103" s="7"/>
+      <c r="J103" s="6"/>
     </row>
     <row r="104" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="10" t="s">
+      <c r="A104" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B104" s="10"/>
-      <c r="C104" s="10" t="s">
+      <c r="B104" s="7"/>
+      <c r="C104" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="D104" s="10"/>
-      <c r="E104" s="10" t="s">
+      <c r="D104" s="7"/>
+      <c r="E104" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F104" s="10" t="s">
+      <c r="F104" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="G104" s="10"/>
-      <c r="H104" s="10" t="s">
+      <c r="G104" s="7"/>
+      <c r="H104" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="I104" s="10"/>
-      <c r="J104" s="10"/>
+      <c r="I104" s="7"/>
+      <c r="J104" s="7"/>
     </row>
     <row r="105" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="10"/>
-      <c r="B105" s="10"/>
-      <c r="C105" s="10"/>
-      <c r="D105" s="10"/>
-      <c r="E105" s="10"/>
-      <c r="F105" s="10"/>
-      <c r="G105" s="10"/>
-      <c r="H105" s="10"/>
-      <c r="I105" s="10"/>
-      <c r="J105" s="10"/>
+      <c r="A105" s="7"/>
+      <c r="B105" s="7"/>
+      <c r="C105" s="7"/>
+      <c r="D105" s="7"/>
+      <c r="E105" s="7"/>
+      <c r="F105" s="7"/>
+      <c r="G105" s="7"/>
+      <c r="H105" s="7"/>
+      <c r="I105" s="7"/>
+      <c r="J105" s="7"/>
     </row>
     <row r="106" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="10" t="s">
+      <c r="A106" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B106" s="10"/>
-      <c r="C106" s="10" t="s">
+      <c r="B106" s="7"/>
+      <c r="C106" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="D106" s="10"/>
-      <c r="E106" s="10" t="s">
+      <c r="D106" s="7"/>
+      <c r="E106" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F106" s="14" t="s">
+      <c r="F106" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="G106" s="14"/>
-      <c r="H106" s="10" t="s">
+      <c r="G106" s="10"/>
+      <c r="H106" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="I106" s="10"/>
-      <c r="J106" s="10"/>
+      <c r="I106" s="7"/>
+      <c r="J106" s="7"/>
     </row>
     <row r="107" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="10"/>
-      <c r="B107" s="10"/>
-      <c r="C107" s="10"/>
-      <c r="D107" s="10"/>
-      <c r="E107" s="10"/>
-      <c r="F107" s="14"/>
-      <c r="G107" s="14"/>
-      <c r="H107" s="10"/>
-      <c r="I107" s="10"/>
-      <c r="J107" s="10"/>
+      <c r="A107" s="7"/>
+      <c r="B107" s="7"/>
+      <c r="C107" s="7"/>
+      <c r="D107" s="7"/>
+      <c r="E107" s="7"/>
+      <c r="F107" s="10"/>
+      <c r="G107" s="10"/>
+      <c r="H107" s="7"/>
+      <c r="I107" s="7"/>
+      <c r="J107" s="7"/>
     </row>
     <row r="108" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="10" t="s">
+      <c r="A108" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B108" s="10"/>
-      <c r="C108" s="10" t="s">
+      <c r="B108" s="7"/>
+      <c r="C108" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="D108" s="10"/>
-      <c r="E108" s="10" t="s">
+      <c r="D108" s="7"/>
+      <c r="E108" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F108" s="14" t="s">
+      <c r="F108" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="G108" s="14"/>
-      <c r="H108" s="10" t="s">
+      <c r="G108" s="10"/>
+      <c r="H108" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="I108" s="10"/>
-      <c r="J108" s="10"/>
+      <c r="I108" s="7"/>
+      <c r="J108" s="7"/>
     </row>
     <row r="109" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="10"/>
-      <c r="B109" s="10"/>
-      <c r="C109" s="10"/>
-      <c r="D109" s="10"/>
-      <c r="E109" s="10"/>
-      <c r="F109" s="14"/>
-      <c r="G109" s="14"/>
-      <c r="H109" s="10"/>
-      <c r="I109" s="10"/>
-      <c r="J109" s="10"/>
+      <c r="A109" s="7"/>
+      <c r="B109" s="7"/>
+      <c r="C109" s="7"/>
+      <c r="D109" s="7"/>
+      <c r="E109" s="7"/>
+      <c r="F109" s="10"/>
+      <c r="G109" s="10"/>
+      <c r="H109" s="7"/>
+      <c r="I109" s="7"/>
+      <c r="J109" s="7"/>
     </row>
     <row r="110" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="10" t="s">
+      <c r="A110" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B110" s="10"/>
-      <c r="C110" s="10" t="s">
+      <c r="B110" s="7"/>
+      <c r="C110" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="D110" s="10"/>
-      <c r="E110" s="10" t="s">
+      <c r="D110" s="7"/>
+      <c r="E110" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F110" s="14" t="s">
+      <c r="F110" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="G110" s="14"/>
-      <c r="H110" s="10" t="s">
+      <c r="G110" s="10"/>
+      <c r="H110" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="I110" s="10"/>
-      <c r="J110" s="10"/>
+      <c r="I110" s="7"/>
+      <c r="J110" s="7"/>
     </row>
     <row r="111" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="10"/>
-      <c r="B111" s="10"/>
-      <c r="C111" s="10"/>
-      <c r="D111" s="10"/>
-      <c r="E111" s="10"/>
-      <c r="F111" s="14"/>
-      <c r="G111" s="14"/>
-      <c r="H111" s="10"/>
-      <c r="I111" s="10"/>
-      <c r="J111" s="10"/>
+      <c r="A111" s="7"/>
+      <c r="B111" s="7"/>
+      <c r="C111" s="7"/>
+      <c r="D111" s="7"/>
+      <c r="E111" s="7"/>
+      <c r="F111" s="10"/>
+      <c r="G111" s="10"/>
+      <c r="H111" s="7"/>
+      <c r="I111" s="7"/>
+      <c r="J111" s="7"/>
     </row>
     <row r="112" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="10" t="s">
+      <c r="A112" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B112" s="10"/>
-      <c r="C112" s="10" t="s">
+      <c r="B112" s="7"/>
+      <c r="C112" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="D112" s="10"/>
-      <c r="E112" s="10" t="s">
+      <c r="D112" s="7"/>
+      <c r="E112" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F112" s="14" t="s">
+      <c r="F112" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="G112" s="14"/>
-      <c r="H112" s="10" t="s">
+      <c r="G112" s="10"/>
+      <c r="H112" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="I112" s="10"/>
-      <c r="J112" s="10"/>
+      <c r="I112" s="7"/>
+      <c r="J112" s="7"/>
     </row>
     <row r="113" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="10"/>
-      <c r="B113" s="10"/>
-      <c r="C113" s="10"/>
-      <c r="D113" s="10"/>
-      <c r="E113" s="10"/>
-      <c r="F113" s="14"/>
-      <c r="G113" s="14"/>
-      <c r="H113" s="10"/>
-      <c r="I113" s="10"/>
-      <c r="J113" s="10"/>
+      <c r="A113" s="7"/>
+      <c r="B113" s="7"/>
+      <c r="C113" s="7"/>
+      <c r="D113" s="7"/>
+      <c r="E113" s="7"/>
+      <c r="F113" s="10"/>
+      <c r="G113" s="10"/>
+      <c r="H113" s="7"/>
+      <c r="I113" s="7"/>
+      <c r="J113" s="7"/>
     </row>
     <row r="114" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="10" t="s">
+      <c r="A114" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B114" s="10"/>
-      <c r="C114" s="10" t="s">
+      <c r="B114" s="7"/>
+      <c r="C114" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="D114" s="10"/>
-      <c r="E114" s="10" t="s">
+      <c r="D114" s="7"/>
+      <c r="E114" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F114" s="14" t="s">
+      <c r="F114" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="G114" s="14"/>
-      <c r="H114" s="10" t="s">
+      <c r="G114" s="10"/>
+      <c r="H114" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="I114" s="10"/>
-      <c r="J114" s="10"/>
+      <c r="I114" s="7"/>
+      <c r="J114" s="7"/>
     </row>
     <row r="115" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="10"/>
-      <c r="B115" s="10"/>
-      <c r="C115" s="10"/>
-      <c r="D115" s="10"/>
-      <c r="E115" s="10"/>
-      <c r="F115" s="14"/>
-      <c r="G115" s="14"/>
-      <c r="H115" s="10"/>
-      <c r="I115" s="10"/>
-      <c r="J115" s="10"/>
+      <c r="A115" s="7"/>
+      <c r="B115" s="7"/>
+      <c r="C115" s="7"/>
+      <c r="D115" s="7"/>
+      <c r="E115" s="7"/>
+      <c r="F115" s="10"/>
+      <c r="G115" s="10"/>
+      <c r="H115" s="7"/>
+      <c r="I115" s="7"/>
+      <c r="J115" s="7"/>
     </row>
     <row r="116" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="10" t="s">
+      <c r="A116" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B116" s="10"/>
-      <c r="C116" s="10" t="s">
+      <c r="B116" s="7"/>
+      <c r="C116" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="D116" s="10"/>
-      <c r="E116" s="10" t="s">
+      <c r="D116" s="7"/>
+      <c r="E116" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F116" s="14" t="s">
+      <c r="F116" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="G116" s="14"/>
-      <c r="H116" s="10" t="s">
+      <c r="G116" s="10"/>
+      <c r="H116" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="I116" s="10"/>
-      <c r="J116" s="10"/>
+      <c r="I116" s="7"/>
+      <c r="J116" s="7"/>
     </row>
     <row r="117" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="10"/>
-      <c r="B117" s="10"/>
-      <c r="C117" s="10"/>
-      <c r="D117" s="10"/>
-      <c r="E117" s="10"/>
-      <c r="F117" s="14"/>
-      <c r="G117" s="14"/>
-      <c r="H117" s="10"/>
-      <c r="I117" s="10"/>
-      <c r="J117" s="10"/>
+      <c r="A117" s="7"/>
+      <c r="B117" s="7"/>
+      <c r="C117" s="7"/>
+      <c r="D117" s="7"/>
+      <c r="E117" s="7"/>
+      <c r="F117" s="10"/>
+      <c r="G117" s="10"/>
+      <c r="H117" s="7"/>
+      <c r="I117" s="7"/>
+      <c r="J117" s="7"/>
     </row>
     <row r="118" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="10" t="s">
+      <c r="A118" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B118" s="10"/>
-      <c r="C118" s="10" t="s">
+      <c r="B118" s="7"/>
+      <c r="C118" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="D118" s="10"/>
-      <c r="E118" s="10" t="s">
+      <c r="D118" s="7"/>
+      <c r="E118" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F118" s="14" t="s">
+      <c r="F118" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="G118" s="14"/>
-      <c r="H118" s="10" t="s">
+      <c r="G118" s="10"/>
+      <c r="H118" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="I118" s="10"/>
-      <c r="J118" s="10"/>
+      <c r="I118" s="7"/>
+      <c r="J118" s="7"/>
     </row>
     <row r="119" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A119" s="10"/>
-      <c r="B119" s="10"/>
-      <c r="C119" s="10"/>
-      <c r="D119" s="10"/>
-      <c r="E119" s="10"/>
-      <c r="F119" s="14"/>
-      <c r="G119" s="14"/>
-      <c r="H119" s="10"/>
-      <c r="I119" s="10"/>
-      <c r="J119" s="10"/>
+      <c r="A119" s="7"/>
+      <c r="B119" s="7"/>
+      <c r="C119" s="7"/>
+      <c r="D119" s="7"/>
+      <c r="E119" s="7"/>
+      <c r="F119" s="10"/>
+      <c r="G119" s="10"/>
+      <c r="H119" s="7"/>
+      <c r="I119" s="7"/>
+      <c r="J119" s="7"/>
     </row>
     <row r="120" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="4" t="s">
+      <c r="A120" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B120" s="5"/>
-      <c r="C120" s="10" t="s">
+      <c r="B120" s="4"/>
+      <c r="C120" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="D120" s="10"/>
+      <c r="D120" s="7"/>
       <c r="E120" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="F120" s="14" t="s">
+      <c r="F120" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="G120" s="14"/>
-      <c r="H120" s="4" t="s">
+      <c r="G120" s="10"/>
+      <c r="H120" s="3" t="s">
         <v>24</v>
       </c>
       <c r="I120" s="11"/>
-      <c r="J120" s="5"/>
+      <c r="J120" s="4"/>
     </row>
     <row r="121" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="6"/>
-      <c r="B121" s="7"/>
-      <c r="C121" s="10"/>
-      <c r="D121" s="10"/>
+      <c r="A121" s="5"/>
+      <c r="B121" s="6"/>
+      <c r="C121" s="7"/>
+      <c r="D121" s="7"/>
       <c r="E121" s="9"/>
-      <c r="F121" s="14"/>
-      <c r="G121" s="14"/>
-      <c r="H121" s="6"/>
+      <c r="F121" s="10"/>
+      <c r="G121" s="10"/>
+      <c r="H121" s="5"/>
       <c r="I121" s="12"/>
-      <c r="J121" s="7"/>
+      <c r="J121" s="6"/>
     </row>
     <row r="122" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="4" t="s">
+      <c r="A122" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B122" s="5"/>
-      <c r="C122" s="10" t="s">
+      <c r="B122" s="4"/>
+      <c r="C122" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="D122" s="10"/>
+      <c r="D122" s="7"/>
       <c r="E122" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="F122" s="14" t="s">
+      <c r="F122" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="G122" s="14"/>
-      <c r="H122" s="4" t="s">
+      <c r="G122" s="10"/>
+      <c r="H122" s="3" t="s">
         <v>69</v>
       </c>
       <c r="I122" s="11"/>
-      <c r="J122" s="5"/>
+      <c r="J122" s="4"/>
     </row>
     <row r="123" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="6"/>
-      <c r="B123" s="7"/>
-      <c r="C123" s="10"/>
-      <c r="D123" s="10"/>
+      <c r="A123" s="5"/>
+      <c r="B123" s="6"/>
+      <c r="C123" s="7"/>
+      <c r="D123" s="7"/>
       <c r="E123" s="9"/>
-      <c r="F123" s="14"/>
-      <c r="G123" s="14"/>
-      <c r="H123" s="6"/>
+      <c r="F123" s="10"/>
+      <c r="G123" s="10"/>
+      <c r="H123" s="5"/>
       <c r="I123" s="12"/>
-      <c r="J123" s="7"/>
+      <c r="J123" s="6"/>
     </row>
     <row r="124" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="126" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="263">
-    <mergeCell ref="A122:B123"/>
-    <mergeCell ref="C122:D123"/>
-    <mergeCell ref="E122:E123"/>
-    <mergeCell ref="F122:G123"/>
-    <mergeCell ref="H122:J123"/>
-    <mergeCell ref="A120:B121"/>
-    <mergeCell ref="C120:D121"/>
-    <mergeCell ref="E120:E121"/>
-    <mergeCell ref="F120:G121"/>
-    <mergeCell ref="H120:J121"/>
-    <mergeCell ref="A118:B119"/>
-    <mergeCell ref="C118:D119"/>
-    <mergeCell ref="E118:E119"/>
-    <mergeCell ref="F118:G119"/>
-    <mergeCell ref="H118:J119"/>
-    <mergeCell ref="A114:B115"/>
-    <mergeCell ref="C114:D115"/>
-    <mergeCell ref="E114:E115"/>
-    <mergeCell ref="F114:G115"/>
-    <mergeCell ref="H114:J115"/>
-    <mergeCell ref="A116:B117"/>
-    <mergeCell ref="C116:D117"/>
-    <mergeCell ref="E116:E117"/>
-    <mergeCell ref="F116:G117"/>
-    <mergeCell ref="H116:J117"/>
-    <mergeCell ref="A110:B111"/>
-    <mergeCell ref="C110:D111"/>
-    <mergeCell ref="E110:E111"/>
-    <mergeCell ref="F110:G111"/>
-    <mergeCell ref="H110:J111"/>
-    <mergeCell ref="A112:B113"/>
-    <mergeCell ref="C112:D113"/>
-    <mergeCell ref="E112:E113"/>
-    <mergeCell ref="F112:G113"/>
-    <mergeCell ref="H112:J113"/>
-    <mergeCell ref="A106:B107"/>
-    <mergeCell ref="C106:D107"/>
-    <mergeCell ref="E106:E107"/>
-    <mergeCell ref="F106:G107"/>
-    <mergeCell ref="H106:J107"/>
-    <mergeCell ref="A108:B109"/>
-    <mergeCell ref="C108:D109"/>
-    <mergeCell ref="E108:E109"/>
-    <mergeCell ref="F108:G109"/>
-    <mergeCell ref="H108:J109"/>
-    <mergeCell ref="A102:B103"/>
-    <mergeCell ref="C102:D103"/>
-    <mergeCell ref="E102:E103"/>
-    <mergeCell ref="F102:G103"/>
-    <mergeCell ref="H102:J103"/>
-    <mergeCell ref="A104:B105"/>
-    <mergeCell ref="C104:D105"/>
-    <mergeCell ref="E104:E105"/>
-    <mergeCell ref="F104:G105"/>
-    <mergeCell ref="H104:J105"/>
-    <mergeCell ref="A100:B101"/>
-    <mergeCell ref="C100:D101"/>
-    <mergeCell ref="E100:E101"/>
-    <mergeCell ref="F100:G101"/>
-    <mergeCell ref="H100:J101"/>
-    <mergeCell ref="A92:B93"/>
-    <mergeCell ref="C92:D93"/>
-    <mergeCell ref="E92:E93"/>
-    <mergeCell ref="F92:G93"/>
-    <mergeCell ref="H92:J93"/>
-    <mergeCell ref="A75:B76"/>
-    <mergeCell ref="C75:D76"/>
-    <mergeCell ref="E75:E76"/>
-    <mergeCell ref="F75:G76"/>
-    <mergeCell ref="H75:J76"/>
-    <mergeCell ref="A77:B78"/>
-    <mergeCell ref="C77:D78"/>
-    <mergeCell ref="E77:E78"/>
-    <mergeCell ref="F77:G78"/>
-    <mergeCell ref="H77:J78"/>
-    <mergeCell ref="A71:B72"/>
-    <mergeCell ref="C71:D72"/>
-    <mergeCell ref="E71:E72"/>
-    <mergeCell ref="F71:G72"/>
-    <mergeCell ref="H71:J72"/>
-    <mergeCell ref="A73:B74"/>
-    <mergeCell ref="C73:D74"/>
-    <mergeCell ref="E73:E74"/>
-    <mergeCell ref="F73:G74"/>
-    <mergeCell ref="H73:J74"/>
-    <mergeCell ref="E65:E66"/>
-    <mergeCell ref="F65:G66"/>
-    <mergeCell ref="H65:J66"/>
-    <mergeCell ref="A67:B68"/>
-    <mergeCell ref="C67:D68"/>
-    <mergeCell ref="E67:E68"/>
-    <mergeCell ref="F67:G68"/>
-    <mergeCell ref="H67:J68"/>
-    <mergeCell ref="A69:B70"/>
-    <mergeCell ref="C69:D70"/>
-    <mergeCell ref="E69:E70"/>
-    <mergeCell ref="F69:G70"/>
-    <mergeCell ref="H69:J70"/>
-    <mergeCell ref="A46:B47"/>
-    <mergeCell ref="C46:D47"/>
-    <mergeCell ref="E46:E47"/>
-    <mergeCell ref="F46:G47"/>
-    <mergeCell ref="H46:J47"/>
-    <mergeCell ref="A48:B49"/>
-    <mergeCell ref="C48:D49"/>
-    <mergeCell ref="E48:E49"/>
-    <mergeCell ref="F48:G49"/>
-    <mergeCell ref="H48:J49"/>
-    <mergeCell ref="A42:B43"/>
-    <mergeCell ref="C42:D43"/>
-    <mergeCell ref="E42:E43"/>
-    <mergeCell ref="F42:G43"/>
-    <mergeCell ref="H42:J43"/>
-    <mergeCell ref="A44:B45"/>
-    <mergeCell ref="C44:D45"/>
-    <mergeCell ref="E44:E45"/>
-    <mergeCell ref="F44:G45"/>
-    <mergeCell ref="H44:J45"/>
-    <mergeCell ref="A27:B28"/>
-    <mergeCell ref="C27:D28"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="F27:G28"/>
-    <mergeCell ref="H27:J28"/>
-    <mergeCell ref="A40:B41"/>
-    <mergeCell ref="C40:D41"/>
-    <mergeCell ref="E40:E41"/>
-    <mergeCell ref="F40:G41"/>
-    <mergeCell ref="H40:J41"/>
-    <mergeCell ref="A23:B24"/>
-    <mergeCell ref="C23:D24"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="F23:G24"/>
-    <mergeCell ref="H23:J24"/>
-    <mergeCell ref="A25:B26"/>
-    <mergeCell ref="C25:D26"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="F25:G26"/>
-    <mergeCell ref="H25:J26"/>
+    <mergeCell ref="H98:J99"/>
+    <mergeCell ref="A63:B64"/>
+    <mergeCell ref="C63:D64"/>
+    <mergeCell ref="E63:E64"/>
+    <mergeCell ref="F63:G64"/>
+    <mergeCell ref="H63:J64"/>
+    <mergeCell ref="A65:B66"/>
+    <mergeCell ref="C65:D66"/>
+    <mergeCell ref="H90:J91"/>
+    <mergeCell ref="A86:B87"/>
+    <mergeCell ref="C86:D87"/>
+    <mergeCell ref="E86:E87"/>
+    <mergeCell ref="F86:G87"/>
+    <mergeCell ref="H86:J87"/>
+    <mergeCell ref="C84:D85"/>
+    <mergeCell ref="A84:B85"/>
+    <mergeCell ref="A90:B91"/>
+    <mergeCell ref="C90:D91"/>
+    <mergeCell ref="E90:E91"/>
+    <mergeCell ref="F90:G91"/>
+    <mergeCell ref="H84:J85"/>
+    <mergeCell ref="F84:G85"/>
+    <mergeCell ref="E84:E85"/>
+    <mergeCell ref="A88:B89"/>
+    <mergeCell ref="C88:D89"/>
+    <mergeCell ref="E88:E89"/>
+    <mergeCell ref="F88:G89"/>
+    <mergeCell ref="H88:J89"/>
+    <mergeCell ref="A83:B83"/>
+    <mergeCell ref="C83:D83"/>
+    <mergeCell ref="F83:G83"/>
+    <mergeCell ref="H83:J83"/>
+    <mergeCell ref="A59:B60"/>
+    <mergeCell ref="C59:D60"/>
+    <mergeCell ref="E59:E60"/>
+    <mergeCell ref="F59:G60"/>
+    <mergeCell ref="H59:J60"/>
+    <mergeCell ref="A61:B62"/>
+    <mergeCell ref="C61:D62"/>
+    <mergeCell ref="E61:E62"/>
+    <mergeCell ref="F61:G62"/>
+    <mergeCell ref="H61:J62"/>
+    <mergeCell ref="A55:B56"/>
+    <mergeCell ref="C55:D56"/>
+    <mergeCell ref="E55:E56"/>
+    <mergeCell ref="F55:G56"/>
+    <mergeCell ref="H55:J56"/>
+    <mergeCell ref="A57:B58"/>
+    <mergeCell ref="C57:D58"/>
+    <mergeCell ref="E57:E58"/>
+    <mergeCell ref="F57:G58"/>
+    <mergeCell ref="H57:J58"/>
+    <mergeCell ref="A38:B39"/>
+    <mergeCell ref="C38:D39"/>
+    <mergeCell ref="E38:E39"/>
+    <mergeCell ref="F38:G39"/>
+    <mergeCell ref="H38:J39"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="C54:D54"/>
+    <mergeCell ref="F54:G54"/>
+    <mergeCell ref="H54:J54"/>
+    <mergeCell ref="F19:G20"/>
+    <mergeCell ref="H19:J20"/>
+    <mergeCell ref="A21:B22"/>
+    <mergeCell ref="C21:D22"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="F21:G22"/>
+    <mergeCell ref="H21:J22"/>
+    <mergeCell ref="A17:B18"/>
+    <mergeCell ref="C17:D18"/>
+    <mergeCell ref="A19:B20"/>
+    <mergeCell ref="C19:D20"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="F17:G18"/>
+    <mergeCell ref="H17:J18"/>
+    <mergeCell ref="E19:E20"/>
     <mergeCell ref="A10:B11"/>
     <mergeCell ref="C10:D11"/>
     <mergeCell ref="E10:H11"/>
@@ -2879,21 +2837,26 @@
     <mergeCell ref="A4:B5"/>
     <mergeCell ref="C4:D5"/>
     <mergeCell ref="E4:H5"/>
-    <mergeCell ref="F19:G20"/>
-    <mergeCell ref="H19:J20"/>
-    <mergeCell ref="A21:B22"/>
-    <mergeCell ref="C21:D22"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="F21:G22"/>
-    <mergeCell ref="H21:J22"/>
-    <mergeCell ref="A17:B18"/>
-    <mergeCell ref="C17:D18"/>
-    <mergeCell ref="A19:B20"/>
-    <mergeCell ref="C19:D20"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="F17:G18"/>
-    <mergeCell ref="H17:J18"/>
-    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="A23:B24"/>
+    <mergeCell ref="C23:D24"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="F23:G24"/>
+    <mergeCell ref="H23:J24"/>
+    <mergeCell ref="A25:B26"/>
+    <mergeCell ref="C25:D26"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="F25:G26"/>
+    <mergeCell ref="H25:J26"/>
+    <mergeCell ref="A27:B28"/>
+    <mergeCell ref="C27:D28"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="F27:G28"/>
+    <mergeCell ref="H27:J28"/>
+    <mergeCell ref="A40:B41"/>
+    <mergeCell ref="C40:D41"/>
+    <mergeCell ref="E40:E41"/>
+    <mergeCell ref="F40:G41"/>
+    <mergeCell ref="H40:J41"/>
     <mergeCell ref="A33:B33"/>
     <mergeCell ref="C33:D33"/>
     <mergeCell ref="F33:G33"/>
@@ -2908,66 +2871,69 @@
     <mergeCell ref="E36:E37"/>
     <mergeCell ref="F36:G37"/>
     <mergeCell ref="H36:J37"/>
-    <mergeCell ref="A38:B39"/>
-    <mergeCell ref="C38:D39"/>
-    <mergeCell ref="E38:E39"/>
-    <mergeCell ref="F38:G39"/>
-    <mergeCell ref="H38:J39"/>
-    <mergeCell ref="A54:B54"/>
-    <mergeCell ref="C54:D54"/>
-    <mergeCell ref="F54:G54"/>
-    <mergeCell ref="H54:J54"/>
-    <mergeCell ref="A55:B56"/>
-    <mergeCell ref="C55:D56"/>
-    <mergeCell ref="E55:E56"/>
-    <mergeCell ref="F55:G56"/>
-    <mergeCell ref="H55:J56"/>
-    <mergeCell ref="A57:B58"/>
-    <mergeCell ref="C57:D58"/>
-    <mergeCell ref="E57:E58"/>
-    <mergeCell ref="F57:G58"/>
-    <mergeCell ref="H57:J58"/>
-    <mergeCell ref="A59:B60"/>
-    <mergeCell ref="C59:D60"/>
-    <mergeCell ref="E59:E60"/>
-    <mergeCell ref="F59:G60"/>
-    <mergeCell ref="H59:J60"/>
-    <mergeCell ref="A61:B62"/>
-    <mergeCell ref="C61:D62"/>
-    <mergeCell ref="E61:E62"/>
-    <mergeCell ref="F61:G62"/>
-    <mergeCell ref="H61:J62"/>
-    <mergeCell ref="H84:J85"/>
-    <mergeCell ref="F84:G85"/>
-    <mergeCell ref="E84:E85"/>
-    <mergeCell ref="A88:B89"/>
-    <mergeCell ref="C88:D89"/>
-    <mergeCell ref="E88:E89"/>
-    <mergeCell ref="F88:G89"/>
-    <mergeCell ref="H88:J89"/>
-    <mergeCell ref="A83:B83"/>
-    <mergeCell ref="C83:D83"/>
-    <mergeCell ref="F83:G83"/>
-    <mergeCell ref="H83:J83"/>
-    <mergeCell ref="A63:B64"/>
-    <mergeCell ref="C63:D64"/>
-    <mergeCell ref="E63:E64"/>
-    <mergeCell ref="F63:G64"/>
-    <mergeCell ref="H63:J64"/>
-    <mergeCell ref="A65:B66"/>
-    <mergeCell ref="C65:D66"/>
-    <mergeCell ref="H90:J91"/>
-    <mergeCell ref="A86:B87"/>
-    <mergeCell ref="C86:D87"/>
-    <mergeCell ref="E86:E87"/>
-    <mergeCell ref="F86:G87"/>
-    <mergeCell ref="H86:J87"/>
-    <mergeCell ref="C84:D85"/>
-    <mergeCell ref="A84:B85"/>
-    <mergeCell ref="A90:B91"/>
-    <mergeCell ref="C90:D91"/>
-    <mergeCell ref="E90:E91"/>
-    <mergeCell ref="F90:G91"/>
+    <mergeCell ref="A42:B43"/>
+    <mergeCell ref="C42:D43"/>
+    <mergeCell ref="E42:E43"/>
+    <mergeCell ref="F42:G43"/>
+    <mergeCell ref="H42:J43"/>
+    <mergeCell ref="A44:B45"/>
+    <mergeCell ref="C44:D45"/>
+    <mergeCell ref="E44:E45"/>
+    <mergeCell ref="F44:G45"/>
+    <mergeCell ref="H44:J45"/>
+    <mergeCell ref="A46:B47"/>
+    <mergeCell ref="C46:D47"/>
+    <mergeCell ref="E46:E47"/>
+    <mergeCell ref="F46:G47"/>
+    <mergeCell ref="H46:J47"/>
+    <mergeCell ref="A48:B49"/>
+    <mergeCell ref="C48:D49"/>
+    <mergeCell ref="E48:E49"/>
+    <mergeCell ref="F48:G49"/>
+    <mergeCell ref="H48:J49"/>
+    <mergeCell ref="E65:E66"/>
+    <mergeCell ref="F65:G66"/>
+    <mergeCell ref="H65:J66"/>
+    <mergeCell ref="A67:B68"/>
+    <mergeCell ref="C67:D68"/>
+    <mergeCell ref="E67:E68"/>
+    <mergeCell ref="F67:G68"/>
+    <mergeCell ref="H67:J68"/>
+    <mergeCell ref="A69:B70"/>
+    <mergeCell ref="C69:D70"/>
+    <mergeCell ref="E69:E70"/>
+    <mergeCell ref="F69:G70"/>
+    <mergeCell ref="H69:J70"/>
+    <mergeCell ref="A71:B72"/>
+    <mergeCell ref="C71:D72"/>
+    <mergeCell ref="E71:E72"/>
+    <mergeCell ref="F71:G72"/>
+    <mergeCell ref="H71:J72"/>
+    <mergeCell ref="A73:B74"/>
+    <mergeCell ref="C73:D74"/>
+    <mergeCell ref="E73:E74"/>
+    <mergeCell ref="F73:G74"/>
+    <mergeCell ref="H73:J74"/>
+    <mergeCell ref="A75:B76"/>
+    <mergeCell ref="C75:D76"/>
+    <mergeCell ref="E75:E76"/>
+    <mergeCell ref="F75:G76"/>
+    <mergeCell ref="H75:J76"/>
+    <mergeCell ref="A77:B78"/>
+    <mergeCell ref="C77:D78"/>
+    <mergeCell ref="E77:E78"/>
+    <mergeCell ref="F77:G78"/>
+    <mergeCell ref="H77:J78"/>
+    <mergeCell ref="A100:B101"/>
+    <mergeCell ref="C100:D101"/>
+    <mergeCell ref="E100:E101"/>
+    <mergeCell ref="F100:G101"/>
+    <mergeCell ref="H100:J101"/>
+    <mergeCell ref="A92:B93"/>
+    <mergeCell ref="C92:D93"/>
+    <mergeCell ref="E92:E93"/>
+    <mergeCell ref="F92:G93"/>
+    <mergeCell ref="H92:J93"/>
     <mergeCell ref="A94:B95"/>
     <mergeCell ref="C94:D95"/>
     <mergeCell ref="E94:E95"/>
@@ -2982,9 +2948,64 @@
     <mergeCell ref="C98:D99"/>
     <mergeCell ref="E98:E99"/>
     <mergeCell ref="F98:G99"/>
-    <mergeCell ref="H98:J99"/>
+    <mergeCell ref="A102:B103"/>
+    <mergeCell ref="C102:D103"/>
+    <mergeCell ref="E102:E103"/>
+    <mergeCell ref="F102:G103"/>
+    <mergeCell ref="H102:J103"/>
+    <mergeCell ref="A104:B105"/>
+    <mergeCell ref="C104:D105"/>
+    <mergeCell ref="E104:E105"/>
+    <mergeCell ref="F104:G105"/>
+    <mergeCell ref="H104:J105"/>
+    <mergeCell ref="A106:B107"/>
+    <mergeCell ref="C106:D107"/>
+    <mergeCell ref="E106:E107"/>
+    <mergeCell ref="F106:G107"/>
+    <mergeCell ref="H106:J107"/>
+    <mergeCell ref="A108:B109"/>
+    <mergeCell ref="C108:D109"/>
+    <mergeCell ref="E108:E109"/>
+    <mergeCell ref="F108:G109"/>
+    <mergeCell ref="H108:J109"/>
+    <mergeCell ref="A110:B111"/>
+    <mergeCell ref="C110:D111"/>
+    <mergeCell ref="E110:E111"/>
+    <mergeCell ref="F110:G111"/>
+    <mergeCell ref="H110:J111"/>
+    <mergeCell ref="A112:B113"/>
+    <mergeCell ref="C112:D113"/>
+    <mergeCell ref="E112:E113"/>
+    <mergeCell ref="F112:G113"/>
+    <mergeCell ref="H112:J113"/>
+    <mergeCell ref="A118:B119"/>
+    <mergeCell ref="C118:D119"/>
+    <mergeCell ref="E118:E119"/>
+    <mergeCell ref="F118:G119"/>
+    <mergeCell ref="H118:J119"/>
+    <mergeCell ref="A114:B115"/>
+    <mergeCell ref="C114:D115"/>
+    <mergeCell ref="E114:E115"/>
+    <mergeCell ref="F114:G115"/>
+    <mergeCell ref="H114:J115"/>
+    <mergeCell ref="A116:B117"/>
+    <mergeCell ref="C116:D117"/>
+    <mergeCell ref="E116:E117"/>
+    <mergeCell ref="F116:G117"/>
+    <mergeCell ref="H116:J117"/>
+    <mergeCell ref="A122:B123"/>
+    <mergeCell ref="C122:D123"/>
+    <mergeCell ref="E122:E123"/>
+    <mergeCell ref="F122:G123"/>
+    <mergeCell ref="H122:J123"/>
+    <mergeCell ref="A120:B121"/>
+    <mergeCell ref="C120:D121"/>
+    <mergeCell ref="E120:E121"/>
+    <mergeCell ref="F120:G121"/>
+    <mergeCell ref="H120:J121"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>